--- a/MainTop/22.05.25/таня месяц с 22.04.2025 по 22.05.2025/WB_поставка_поставка.xlsx
+++ b/MainTop/22.05.25/таня месяц с 22.04.2025 по 22.05.2025/WB_поставка_поставка.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\22.05.25\таня месяц с 22.04.2025 по 22.05.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\22.05.25\таня месяц с 22.04.2025 по 22.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B762612-21DE-4560-A8CA-6CB0174B7AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57121D8-DC68-42EA-ABB2-E93D87F1EC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -429,11 +440,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -774,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +807,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>70</v>
       </c>
     </row>
@@ -803,7 +815,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>64</v>
       </c>
     </row>
@@ -811,7 +823,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>62</v>
       </c>
     </row>
@@ -819,7 +831,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>48</v>
       </c>
     </row>
@@ -827,7 +839,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>44</v>
       </c>
     </row>
@@ -835,7 +847,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>40</v>
       </c>
     </row>
@@ -843,7 +855,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>34</v>
       </c>
     </row>
@@ -851,7 +863,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>30</v>
       </c>
     </row>
@@ -859,7 +871,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>28</v>
       </c>
     </row>
@@ -867,7 +879,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>28</v>
       </c>
     </row>
@@ -875,7 +887,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>28</v>
       </c>
     </row>
@@ -883,15 +895,15 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>26</v>
+      <c r="B13" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>26</v>
       </c>
     </row>
@@ -899,7 +911,7 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>22</v>
       </c>
     </row>
@@ -907,7 +919,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>22</v>
       </c>
     </row>
@@ -915,15 +927,15 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>18</v>
+      <c r="B17" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>18</v>
       </c>
     </row>
@@ -931,7 +943,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
     </row>
@@ -939,7 +951,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>16</v>
       </c>
     </row>
@@ -947,7 +959,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>16</v>
       </c>
     </row>
@@ -955,7 +967,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>16</v>
       </c>
     </row>
@@ -963,7 +975,7 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>16</v>
       </c>
     </row>
@@ -971,15 +983,15 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>14</v>
+      <c r="B24" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>14</v>
       </c>
     </row>
@@ -987,7 +999,7 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>14</v>
       </c>
     </row>
@@ -995,7 +1007,7 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1003,7 +1015,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1011,7 +1023,7 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1019,7 +1031,7 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1027,7 +1039,7 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1035,7 +1047,7 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1043,7 +1055,7 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1051,7 +1063,7 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1059,7 +1071,7 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1067,7 +1079,7 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1075,7 +1087,7 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1083,7 +1095,7 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1091,7 +1103,7 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1099,7 +1111,7 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1107,7 +1119,7 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1115,7 +1127,7 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1123,7 +1135,7 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1131,7 +1143,7 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1139,7 +1151,7 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1147,7 +1159,7 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1155,7 +1167,7 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1163,7 +1175,7 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1171,7 +1183,7 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1179,7 +1191,7 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1187,7 +1199,7 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1195,7 +1207,7 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1203,7 +1215,7 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1211,7 +1223,7 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1219,7 +1231,7 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1227,7 +1239,7 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1235,7 +1247,7 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1243,7 +1255,7 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1251,7 +1263,7 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1259,7 +1271,7 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1267,7 +1279,7 @@
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1275,7 +1287,7 @@
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1283,7 +1295,7 @@
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1291,7 +1303,7 @@
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1299,7 +1311,7 @@
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1307,7 +1319,7 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1315,7 +1327,7 @@
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1323,7 +1335,7 @@
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1331,7 +1343,7 @@
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1339,7 +1351,7 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1347,7 +1359,7 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1355,7 +1367,7 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1363,7 +1375,7 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1371,7 +1383,7 @@
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1379,7 +1391,7 @@
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1387,7 +1399,7 @@
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1395,7 +1407,7 @@
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1403,7 +1415,7 @@
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1411,7 +1423,7 @@
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1419,7 +1431,7 @@
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>24</v>
       </c>
     </row>
@@ -1427,7 +1439,7 @@
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1435,7 +1447,7 @@
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1443,7 +1455,7 @@
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1451,7 +1463,7 @@
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1459,7 +1471,7 @@
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1467,7 +1479,7 @@
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1475,7 +1487,7 @@
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1483,7 +1495,7 @@
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1491,7 +1503,7 @@
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1499,7 +1511,7 @@
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1507,7 +1519,7 @@
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1515,7 +1527,7 @@
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1523,7 +1535,7 @@
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1531,7 +1543,7 @@
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1539,7 +1551,7 @@
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1547,7 +1559,7 @@
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1555,7 +1567,7 @@
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1563,7 +1575,7 @@
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1571,7 +1583,7 @@
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1579,7 +1591,7 @@
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1587,7 +1599,7 @@
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1595,7 +1607,7 @@
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1603,7 +1615,7 @@
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1611,7 +1623,7 @@
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1619,7 +1631,7 @@
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1627,7 +1639,7 @@
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1635,7 +1647,7 @@
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1643,7 +1655,7 @@
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1651,7 +1663,7 @@
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1659,7 +1671,7 @@
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1667,7 +1679,7 @@
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1675,7 +1687,7 @@
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1683,7 +1695,7 @@
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1691,7 +1703,7 @@
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1699,7 +1711,7 @@
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1707,7 +1719,7 @@
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>2</v>
       </c>
     </row>
